--- a/dataanalysis/data/predictions/1000/08040956_0959.xlsx
+++ b/dataanalysis/data/predictions/1000/08040956_0959.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-04</t>
   </si>
   <si>
@@ -362,12 +365,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -725,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,19 +831,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300009</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-4.96</v>
@@ -864,7 +864,7 @@
         <v>91835.66</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -905,8 +905,23 @@
       <c r="W2">
         <v>-1.03</v>
       </c>
+      <c r="X2">
+        <v>-2.12</v>
+      </c>
+      <c r="Y2">
+        <v>11.99</v>
+      </c>
+      <c r="Z2">
+        <v>6.01</v>
+      </c>
       <c r="AC2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -914,22 +929,25 @@
       <c r="AG2">
         <v>2.973160028457642</v>
       </c>
-      <c r="AH2" t="s">
-        <v>116</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300158</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-5.28</v>
@@ -947,7 +965,7 @@
         <v>60821.82</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -988,8 +1006,23 @@
       <c r="W3">
         <v>-0.75</v>
       </c>
+      <c r="X3">
+        <v>-1.59</v>
+      </c>
+      <c r="Y3">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>15.03</v>
+      </c>
       <c r="AC3" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -997,22 +1030,25 @@
       <c r="AG3">
         <v>2.287872552871704</v>
       </c>
-      <c r="AH3" t="s">
-        <v>116</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300188</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1.51</v>
@@ -1030,7 +1066,7 @@
         <v>48567.73</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1071,8 +1107,23 @@
       <c r="W4">
         <v>0.04</v>
       </c>
+      <c r="X4">
+        <v>-1.79</v>
+      </c>
+      <c r="Y4">
+        <v>17.32</v>
+      </c>
+      <c r="Z4">
+        <v>-4.36</v>
+      </c>
       <c r="AC4" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1080,22 +1131,25 @@
       <c r="AG4">
         <v>4.504195213317871</v>
       </c>
-      <c r="AH4" t="s">
-        <v>116</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300289</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>4.14</v>
@@ -1113,7 +1167,7 @@
         <v>78678.52</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1154,8 +1208,23 @@
       <c r="W5">
         <v>-1.65</v>
       </c>
+      <c r="X5">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>10.88</v>
+      </c>
+      <c r="Z5">
+        <v>23.64</v>
+      </c>
       <c r="AC5" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1163,22 +1232,25 @@
       <c r="AG5">
         <v>3.669941902160645</v>
       </c>
-      <c r="AH5" t="s">
-        <v>116</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300322</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.99</v>
@@ -1196,7 +1268,7 @@
         <v>63108.59</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1237,8 +1309,23 @@
       <c r="W6">
         <v>0.04</v>
       </c>
+      <c r="X6">
+        <v>6.45</v>
+      </c>
+      <c r="Y6">
+        <v>21.18</v>
+      </c>
+      <c r="Z6">
+        <v>9.34</v>
+      </c>
       <c r="AC6" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1246,22 +1333,25 @@
       <c r="AG6">
         <v>3.240880012512207</v>
       </c>
-      <c r="AH6" t="s">
-        <v>116</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300378</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.39</v>
@@ -1279,7 +1369,7 @@
         <v>132989.38</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1320,8 +1410,23 @@
       <c r="W7">
         <v>-0.39</v>
       </c>
+      <c r="X7">
+        <v>-4.88</v>
+      </c>
+      <c r="Y7">
+        <v>62.98</v>
+      </c>
+      <c r="Z7">
+        <v>0.85</v>
+      </c>
       <c r="AC7" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1329,22 +1434,25 @@
       <c r="AG7">
         <v>1.937003016471863</v>
       </c>
-      <c r="AH7" t="s">
-        <v>116</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300394</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-3.84</v>
@@ -1362,7 +1470,7 @@
         <v>147243.24</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1403,8 +1511,23 @@
       <c r="W8">
         <v>-0.15</v>
       </c>
+      <c r="X8">
+        <v>-1.21</v>
+      </c>
+      <c r="Y8">
+        <v>106.99</v>
+      </c>
+      <c r="Z8">
+        <v>3.13</v>
+      </c>
       <c r="AC8" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1412,22 +1535,25 @@
       <c r="AG8">
         <v>4.869349002838135</v>
       </c>
-      <c r="AH8" t="s">
-        <v>116</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300436</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.88</v>
@@ -1445,7 +1571,7 @@
         <v>70131.56</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K9">
         <v>23</v>
@@ -1486,8 +1612,23 @@
       <c r="W9">
         <v>-0.3</v>
       </c>
+      <c r="X9">
+        <v>2.19</v>
+      </c>
+      <c r="Y9">
+        <v>124.5</v>
+      </c>
+      <c r="Z9">
+        <v>20.64</v>
+      </c>
       <c r="AC9" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1495,22 +1636,25 @@
       <c r="AG9">
         <v>2.312256097793579</v>
       </c>
-      <c r="AH9" t="s">
-        <v>116</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300486</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>19.99</v>
@@ -1528,7 +1672,7 @@
         <v>76926.16</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1569,8 +1713,23 @@
       <c r="W10">
         <v>0.37</v>
       </c>
+      <c r="X10">
+        <v>20.01</v>
+      </c>
+      <c r="Y10">
+        <v>20.39</v>
+      </c>
+      <c r="Z10">
+        <v>20.01</v>
+      </c>
       <c r="AC10" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1578,22 +1737,25 @@
       <c r="AG10">
         <v>7.33376932144165</v>
       </c>
-      <c r="AH10" t="s">
-        <v>117</v>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300534</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>6.21</v>
@@ -1611,7 +1773,7 @@
         <v>36267.32</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1652,8 +1814,23 @@
       <c r="W11">
         <v>0.59</v>
       </c>
+      <c r="X11">
+        <v>-3.06</v>
+      </c>
+      <c r="Y11">
+        <v>12.22</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
       <c r="AC11" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1661,22 +1838,25 @@
       <c r="AG11">
         <v>5.111761569976807</v>
       </c>
-      <c r="AH11" t="s">
-        <v>116</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300588</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-0.26</v>
@@ -1694,7 +1874,7 @@
         <v>12839.29</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -1735,8 +1915,23 @@
       <c r="W12">
         <v>0.1</v>
       </c>
+      <c r="X12">
+        <v>0.47</v>
+      </c>
+      <c r="Y12">
+        <v>20.19</v>
+      </c>
+      <c r="Z12">
+        <v>4.45</v>
+      </c>
       <c r="AC12" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1744,22 +1939,25 @@
       <c r="AG12">
         <v>8.273927688598633</v>
       </c>
-      <c r="AH12" t="s">
-        <v>116</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300591</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>16.15</v>
@@ -1777,7 +1975,7 @@
         <v>96966.2</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1818,8 +2016,23 @@
       <c r="W13">
         <v>3.78</v>
       </c>
+      <c r="X13">
+        <v>-0.63</v>
+      </c>
+      <c r="Y13">
+        <v>13.06</v>
+      </c>
+      <c r="Z13">
+        <v>0.31</v>
+      </c>
       <c r="AC13" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1827,22 +2040,25 @@
       <c r="AG13">
         <v>1.861908078193665</v>
       </c>
-      <c r="AH13" t="s">
-        <v>116</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300683</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-6.3</v>
@@ -1860,7 +2076,7 @@
         <v>30824.15</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -1901,8 +2117,23 @@
       <c r="W14">
         <v>-0.14</v>
       </c>
+      <c r="X14">
+        <v>-7.57</v>
+      </c>
+      <c r="Y14">
+        <v>59.87</v>
+      </c>
+      <c r="Z14">
+        <v>7.27</v>
+      </c>
       <c r="AC14" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1910,22 +2141,25 @@
       <c r="AG14">
         <v>5.017234802246094</v>
       </c>
-      <c r="AH14" t="s">
-        <v>116</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300696</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -1943,7 +2177,7 @@
         <v>89017.13</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1984,8 +2218,23 @@
       <c r="W15">
         <v>3.36</v>
       </c>
+      <c r="X15">
+        <v>6.81</v>
+      </c>
+      <c r="Y15">
+        <v>35.01</v>
+      </c>
+      <c r="Z15">
+        <v>16.24</v>
+      </c>
       <c r="AC15" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -1993,22 +2242,25 @@
       <c r="AG15">
         <v>9.201495170593262</v>
       </c>
-      <c r="AH15" t="s">
-        <v>117</v>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300731</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>14.02</v>
@@ -2026,7 +2278,7 @@
         <v>52728.69</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2067,8 +2319,23 @@
       <c r="W16">
         <v>0.6</v>
       </c>
+      <c r="X16">
+        <v>6.42</v>
+      </c>
+      <c r="Y16">
+        <v>40.17</v>
+      </c>
+      <c r="Z16">
+        <v>7.84</v>
+      </c>
       <c r="AC16" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2076,22 +2343,25 @@
       <c r="AG16">
         <v>1.603336453437805</v>
       </c>
-      <c r="AH16" t="s">
-        <v>116</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300732</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.41</v>
@@ -2109,7 +2379,7 @@
         <v>20797.47</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2150,8 +2420,23 @@
       <c r="W17">
         <v>-0.18</v>
       </c>
+      <c r="X17">
+        <v>11.35</v>
+      </c>
+      <c r="Y17">
+        <v>11.74</v>
+      </c>
+      <c r="Z17">
+        <v>11.39</v>
+      </c>
       <c r="AC17" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2159,22 +2444,25 @@
       <c r="AG17">
         <v>7.308792114257812</v>
       </c>
-      <c r="AH17" t="s">
-        <v>116</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300733</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>11.69</v>
@@ -2192,7 +2480,7 @@
         <v>49754.48</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2233,8 +2521,23 @@
       <c r="W18">
         <v>-0.11</v>
       </c>
+      <c r="X18">
+        <v>2.75</v>
+      </c>
+      <c r="Y18">
+        <v>24.88</v>
+      </c>
+      <c r="Z18">
+        <v>3.71</v>
+      </c>
       <c r="AC18" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2242,22 +2545,25 @@
       <c r="AG18">
         <v>5.529642105102539</v>
       </c>
-      <c r="AH18" t="s">
-        <v>116</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300830</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>11.57</v>
@@ -2275,7 +2581,7 @@
         <v>57151.94</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2316,8 +2622,23 @@
       <c r="W19">
         <v>0.89</v>
       </c>
+      <c r="X19">
+        <v>-6.04</v>
+      </c>
+      <c r="Y19">
+        <v>13.27</v>
+      </c>
+      <c r="Z19">
+        <v>5.07</v>
+      </c>
       <c r="AC19" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2325,22 +2646,25 @@
       <c r="AG19">
         <v>3.545568466186523</v>
       </c>
-      <c r="AH19" t="s">
-        <v>116</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300841</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-2.86</v>
@@ -2358,7 +2682,7 @@
         <v>20173.93</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2399,8 +2723,23 @@
       <c r="W20">
         <v>-0.18</v>
       </c>
+      <c r="X20">
+        <v>1.05</v>
+      </c>
+      <c r="Y20">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>2.41</v>
+      </c>
       <c r="AC20" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2408,22 +2747,25 @@
       <c r="AG20">
         <v>5.416309833526611</v>
       </c>
-      <c r="AH20" t="s">
-        <v>116</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300858</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2.5</v>
@@ -2441,7 +2783,7 @@
         <v>34032.39</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2482,8 +2824,23 @@
       <c r="W21">
         <v>0.17</v>
       </c>
+      <c r="X21">
+        <v>-10.28</v>
+      </c>
+      <c r="Y21">
+        <v>23.76</v>
+      </c>
+      <c r="Z21">
+        <v>13.63</v>
+      </c>
       <c r="AC21" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2491,22 +2848,25 @@
       <c r="AG21">
         <v>1.523588180541992</v>
       </c>
-      <c r="AH21" t="s">
-        <v>116</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300869</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>2.42</v>
@@ -2524,7 +2884,7 @@
         <v>18911.89</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2565,8 +2925,23 @@
       <c r="W22">
         <v>0.34</v>
       </c>
+      <c r="X22">
+        <v>-5.01</v>
+      </c>
+      <c r="Y22">
+        <v>20.54</v>
+      </c>
+      <c r="Z22">
+        <v>1.28</v>
+      </c>
       <c r="AC22" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2574,22 +2949,25 @@
       <c r="AG22">
         <v>2.927169322967529</v>
       </c>
-      <c r="AH22" t="s">
-        <v>116</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300885</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.69</v>
@@ -2607,7 +2985,7 @@
         <v>14899.44</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K23">
         <v>9</v>
@@ -2648,8 +3026,23 @@
       <c r="W23">
         <v>-0.13</v>
       </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>25.59</v>
+      </c>
+      <c r="Z23">
+        <v>18.8</v>
+      </c>
       <c r="AC23" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2657,22 +3050,25 @@
       <c r="AG23">
         <v>5.809600830078125</v>
       </c>
-      <c r="AH23" t="s">
-        <v>116</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300966</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-6</v>
@@ -2690,7 +3086,7 @@
         <v>22742.64</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2731,8 +3127,23 @@
       <c r="W24">
         <v>1.02</v>
       </c>
+      <c r="X24">
+        <v>-5.22</v>
+      </c>
+      <c r="Y24">
+        <v>27.25</v>
+      </c>
+      <c r="Z24">
+        <v>8.65</v>
+      </c>
       <c r="AC24" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2740,22 +3151,25 @@
       <c r="AG24">
         <v>11.69174098968506</v>
       </c>
-      <c r="AH24" t="s">
-        <v>116</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301007</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.96</v>
@@ -2773,7 +3187,7 @@
         <v>13904.65</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2814,8 +3228,23 @@
       <c r="W25">
         <v>0</v>
       </c>
+      <c r="X25">
+        <v>0.23</v>
+      </c>
+      <c r="Y25">
+        <v>39.77</v>
+      </c>
+      <c r="Z25">
+        <v>3.3</v>
+      </c>
       <c r="AC25" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2823,22 +3252,25 @@
       <c r="AG25">
         <v>5.709168434143066</v>
       </c>
-      <c r="AH25" t="s">
-        <v>116</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301038</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.93</v>
@@ -2856,7 +3288,7 @@
         <v>34726.83</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2897,8 +3329,23 @@
       <c r="W26">
         <v>-0.2</v>
       </c>
+      <c r="X26">
+        <v>6.29</v>
+      </c>
+      <c r="Y26">
+        <v>32.36</v>
+      </c>
+      <c r="Z26">
+        <v>0.62</v>
+      </c>
       <c r="AC26" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2906,22 +3353,25 @@
       <c r="AG26">
         <v>2.979839324951172</v>
       </c>
-      <c r="AH26" t="s">
-        <v>116</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301052</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.43</v>
@@ -2939,7 +3389,7 @@
         <v>18073.4</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2980,8 +3430,23 @@
       <c r="W27">
         <v>-0.12</v>
       </c>
+      <c r="X27">
+        <v>3.42</v>
+      </c>
+      <c r="Y27">
+        <v>68.48</v>
+      </c>
+      <c r="Z27">
+        <v>8.58</v>
+      </c>
       <c r="AC27" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -2989,22 +3454,25 @@
       <c r="AG27">
         <v>9.078590393066406</v>
       </c>
-      <c r="AH27" t="s">
-        <v>116</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301150</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.57</v>
@@ -3022,7 +3490,7 @@
         <v>14195.75</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3063,8 +3531,23 @@
       <c r="W28">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X28">
+        <v>-2.75</v>
+      </c>
+      <c r="Y28">
+        <v>29.29</v>
+      </c>
+      <c r="Z28">
+        <v>1.95</v>
+      </c>
       <c r="AC28" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3072,22 +3555,25 @@
       <c r="AG28">
         <v>3.711143732070923</v>
       </c>
-      <c r="AH28" t="s">
-        <v>116</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301200</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-4.57</v>
@@ -3105,7 +3591,7 @@
         <v>26061.78</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29">
         <v>8</v>
@@ -3146,8 +3632,23 @@
       <c r="W29">
         <v>-0.08</v>
       </c>
+      <c r="X29">
+        <v>14.2</v>
+      </c>
+      <c r="Y29">
+        <v>84.87</v>
+      </c>
+      <c r="Z29">
+        <v>20.62</v>
+      </c>
       <c r="AC29" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3155,22 +3656,25 @@
       <c r="AG29">
         <v>10.2770299911499</v>
       </c>
-      <c r="AH29" t="s">
-        <v>116</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301213</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>2.96</v>
@@ -3188,7 +3692,7 @@
         <v>32834.23</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3229,8 +3733,23 @@
       <c r="W30">
         <v>-0.27</v>
       </c>
+      <c r="X30">
+        <v>4.08</v>
+      </c>
+      <c r="Y30">
+        <v>80</v>
+      </c>
+      <c r="Z30">
+        <v>14.29</v>
+      </c>
       <c r="AC30" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3238,22 +3757,25 @@
       <c r="AG30">
         <v>1.074621200561523</v>
       </c>
-      <c r="AH30" t="s">
-        <v>116</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301217</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>1.35</v>
@@ -3271,7 +3793,7 @@
         <v>41147.58</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K31">
         <v>21</v>
@@ -3312,8 +3834,23 @@
       <c r="W31">
         <v>0.04</v>
       </c>
+      <c r="X31">
+        <v>-0.88</v>
+      </c>
+      <c r="Y31">
+        <v>25.37</v>
+      </c>
+      <c r="Z31">
+        <v>-0.31</v>
+      </c>
       <c r="AC31" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3321,22 +3858,25 @@
       <c r="AG31">
         <v>2.592564821243286</v>
       </c>
-      <c r="AH31" t="s">
-        <v>116</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301285</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.48</v>
@@ -3354,7 +3894,7 @@
         <v>11332.52</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3395,8 +3935,23 @@
       <c r="W32">
         <v>-0.04</v>
       </c>
+      <c r="X32">
+        <v>3.95</v>
+      </c>
+      <c r="Y32">
+        <v>44.98</v>
+      </c>
+      <c r="Z32">
+        <v>7.68</v>
+      </c>
       <c r="AC32" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3404,22 +3959,25 @@
       <c r="AG32">
         <v>4.4430832862854</v>
       </c>
-      <c r="AH32" t="s">
-        <v>116</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301306</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0.9</v>
@@ -3437,7 +3995,7 @@
         <v>12837.41</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -3478,8 +4036,23 @@
       <c r="W33">
         <v>0.2</v>
       </c>
+      <c r="X33">
+        <v>1.66</v>
+      </c>
+      <c r="Y33">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="Z33">
+        <v>3.83</v>
+      </c>
       <c r="AC33" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3487,22 +4060,25 @@
       <c r="AG33">
         <v>2.098011493682861</v>
       </c>
-      <c r="AH33" t="s">
-        <v>116</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301338</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>10.06</v>
@@ -3520,7 +4096,7 @@
         <v>34614.41</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3561,8 +4137,23 @@
       <c r="W34">
         <v>1.07</v>
       </c>
+      <c r="X34">
+        <v>3.52</v>
+      </c>
+      <c r="Y34">
+        <v>63.68</v>
+      </c>
+      <c r="Z34">
+        <v>11.25</v>
+      </c>
       <c r="AC34" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3570,22 +4161,25 @@
       <c r="AG34">
         <v>-2.357545614242554</v>
       </c>
-      <c r="AH34" t="s">
-        <v>116</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301357</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>8.42</v>
@@ -3603,7 +4197,7 @@
         <v>65932.60000000001</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3644,8 +4238,23 @@
       <c r="W35">
         <v>0.41</v>
       </c>
+      <c r="X35">
+        <v>14.64</v>
+      </c>
+      <c r="Y35">
+        <v>137.6</v>
+      </c>
+      <c r="Z35">
+        <v>32.69</v>
+      </c>
       <c r="AC35" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3653,22 +4262,25 @@
       <c r="AG35">
         <v>3.413846969604492</v>
       </c>
-      <c r="AH35" t="s">
-        <v>116</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301389</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -3686,7 +4298,7 @@
         <v>55719.75</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36">
         <v>20</v>
@@ -3727,8 +4339,23 @@
       <c r="W36">
         <v>1.61</v>
       </c>
+      <c r="X36">
+        <v>0.29</v>
+      </c>
+      <c r="Y36">
+        <v>54.99</v>
+      </c>
+      <c r="Z36">
+        <v>6.32</v>
+      </c>
       <c r="AC36" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3736,22 +4363,25 @@
       <c r="AG36">
         <v>17.99787902832031</v>
       </c>
-      <c r="AH36" t="s">
-        <v>116</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301489</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>5.83</v>
@@ -3769,7 +4399,7 @@
         <v>70360</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3810,8 +4440,23 @@
       <c r="W37">
         <v>-0.7</v>
       </c>
+      <c r="X37">
+        <v>4.96</v>
+      </c>
+      <c r="Y37">
+        <v>128.18</v>
+      </c>
+      <c r="Z37">
+        <v>11.09</v>
+      </c>
       <c r="AC37" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3819,22 +4464,25 @@
       <c r="AG37">
         <v>-0.3813748359680176</v>
       </c>
-      <c r="AH37" t="s">
-        <v>116</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301511</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.59</v>
@@ -3852,7 +4500,7 @@
         <v>84137.23</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K38">
         <v>30</v>
@@ -3893,8 +4541,23 @@
       <c r="W38">
         <v>-0.48</v>
       </c>
+      <c r="X38">
+        <v>-3.9</v>
+      </c>
+      <c r="Y38">
+        <v>36.39</v>
+      </c>
+      <c r="Z38">
+        <v>3.44</v>
+      </c>
       <c r="AC38" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -3902,22 +4565,25 @@
       <c r="AG38">
         <v>3.193367719650269</v>
       </c>
-      <c r="AH38" t="s">
-        <v>116</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688020</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>3.1</v>
@@ -3935,7 +4601,7 @@
         <v>16492.42</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -3976,8 +4642,23 @@
       <c r="W39">
         <v>-0.06</v>
       </c>
+      <c r="X39">
+        <v>-3.23</v>
+      </c>
+      <c r="Y39">
+        <v>57.8</v>
+      </c>
+      <c r="Z39">
+        <v>4.18</v>
+      </c>
       <c r="AC39" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -3985,22 +4666,25 @@
       <c r="AG39">
         <v>1.29829216003418</v>
       </c>
-      <c r="AH39" t="s">
-        <v>116</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688039</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1.29</v>
@@ -4018,7 +4702,7 @@
         <v>21606.79</v>
       </c>
       <c r="J40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4059,8 +4743,23 @@
       <c r="W40">
         <v>0.09</v>
       </c>
+      <c r="X40">
+        <v>4.47</v>
+      </c>
+      <c r="Y40">
+        <v>49.86</v>
+      </c>
+      <c r="Z40">
+        <v>7.76</v>
+      </c>
       <c r="AC40" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4068,22 +4767,25 @@
       <c r="AG40">
         <v>4.699015617370605</v>
       </c>
-      <c r="AH40" t="s">
-        <v>116</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688048</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>1.75</v>
@@ -4101,7 +4803,7 @@
         <v>21181</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4142,8 +4844,23 @@
       <c r="W41">
         <v>0.11</v>
       </c>
+      <c r="X41">
+        <v>-0.36</v>
+      </c>
+      <c r="Y41">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="Z41">
+        <v>8.67</v>
+      </c>
       <c r="AC41" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4151,22 +4868,25 @@
       <c r="AG41">
         <v>6.454559326171875</v>
       </c>
-      <c r="AH41" t="s">
-        <v>116</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688110</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>8.66</v>
@@ -4184,7 +4904,7 @@
         <v>256864.46</v>
       </c>
       <c r="J42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4225,8 +4945,23 @@
       <c r="W42">
         <v>-0.58</v>
       </c>
+      <c r="X42">
+        <v>-11.63</v>
+      </c>
+      <c r="Y42">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="Z42">
+        <v>8.869999999999999</v>
+      </c>
       <c r="AC42" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4234,22 +4969,25 @@
       <c r="AG42">
         <v>3.325668334960938</v>
       </c>
-      <c r="AH42" t="s">
-        <v>116</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688189</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-4.89</v>
@@ -4267,7 +5005,7 @@
         <v>32193.82</v>
       </c>
       <c r="J43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4308,8 +5046,23 @@
       <c r="W43">
         <v>0.18</v>
       </c>
+      <c r="X43">
+        <v>-7.77</v>
+      </c>
+      <c r="Y43">
+        <v>16.97</v>
+      </c>
+      <c r="Z43">
+        <v>1.56</v>
+      </c>
       <c r="AC43" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>1</v>
@@ -4317,22 +5070,25 @@
       <c r="AG43">
         <v>8.735116004943848</v>
       </c>
-      <c r="AH43" t="s">
-        <v>116</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688258</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.53</v>
@@ -4350,7 +5106,7 @@
         <v>16442.52</v>
       </c>
       <c r="J44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4391,8 +5147,23 @@
       <c r="W44">
         <v>0.22</v>
       </c>
+      <c r="X44">
+        <v>-6.27</v>
+      </c>
+      <c r="Y44">
+        <v>72.97</v>
+      </c>
+      <c r="Z44">
+        <v>10.11</v>
+      </c>
       <c r="AC44" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4400,22 +5171,25 @@
       <c r="AG44">
         <v>6.698860168457031</v>
       </c>
-      <c r="AH44" t="s">
-        <v>116</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688448</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-4.13</v>
@@ -4433,7 +5207,7 @@
         <v>11604.49</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4474,8 +5248,23 @@
       <c r="W45">
         <v>-0.97</v>
       </c>
+      <c r="X45">
+        <v>-3.42</v>
+      </c>
+      <c r="Y45">
+        <v>41.7</v>
+      </c>
+      <c r="Z45">
+        <v>8.74</v>
+      </c>
       <c r="AC45" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4483,22 +5272,25 @@
       <c r="AG45">
         <v>1.348460912704468</v>
       </c>
-      <c r="AH45" t="s">
-        <v>116</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688556</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1.31</v>
@@ -4516,7 +5308,7 @@
         <v>10235.07</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4557,8 +5349,23 @@
       <c r="W46">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X46">
+        <v>6.07</v>
+      </c>
+      <c r="Y46">
+        <v>11.5</v>
+      </c>
+      <c r="Z46">
+        <v>9.32</v>
+      </c>
       <c r="AC46" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4566,22 +5373,25 @@
       <c r="AG46">
         <v>5.589499473571777</v>
       </c>
-      <c r="AH46" t="s">
-        <v>116</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688603</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-1.58</v>
@@ -4599,7 +5409,7 @@
         <v>10692.46</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4640,8 +5450,23 @@
       <c r="W47">
         <v>0.29</v>
       </c>
+      <c r="X47">
+        <v>1.92</v>
+      </c>
+      <c r="Y47">
+        <v>68.52</v>
+      </c>
+      <c r="Z47">
+        <v>3.93</v>
+      </c>
       <c r="AC47" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4649,8 +5474,11 @@
       <c r="AG47">
         <v>7.9777512550354</v>
       </c>
-      <c r="AH47" t="s">
-        <v>116</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
